--- a/data/trans_orig/P14B30-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B30-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{820C6CF7-66BC-4DAC-A81C-8258584C1520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D56A165-F0E8-4C23-845F-3474B3945C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{23ADAABF-CB28-4597-9BC2-F685BCB327B9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DDA536F4-F3EB-422F-97B1-10AE5E5C717C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="157">
   <si>
     <t>Población cuya cirrosis le limita en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -102,7 +102,7 @@
     <t>67,39%</t>
   </si>
   <si>
-    <t>32,62%</t>
+    <t>32,78%</t>
   </si>
   <si>
     <t>66,12%</t>
@@ -111,16 +111,16 @@
     <t>66,98%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>32,61%</t>
   </si>
   <si>
-    <t>67,38%</t>
+    <t>67,22%</t>
   </si>
   <si>
     <t>33,88%</t>
@@ -129,10 +129,10 @@
     <t>33,02%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -141,43 +141,43 @@
     <t>88,18%</t>
   </si>
   <si>
-    <t>49,21%</t>
+    <t>38,11%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>37,07%</t>
+    <t>37,54%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>50,79%</t>
+    <t>61,89%</t>
   </si>
   <si>
     <t>24,56%</t>
   </si>
   <si>
-    <t>62,93%</t>
+    <t>62,46%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -186,7 +186,7 @@
     <t>83,61%</t>
   </si>
   <si>
-    <t>34,69%</t>
+    <t>39,29%</t>
   </si>
   <si>
     <t>34,4%</t>
@@ -195,16 +195,16 @@
     <t>67,42%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>65,31%</t>
+    <t>60,71%</t>
   </si>
   <si>
     <t>65,6%</t>
@@ -213,10 +213,10 @@
     <t>32,58%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -228,19 +228,19 @@
     <t>48,88%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>49,25%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>50,2%</t>
@@ -249,73 +249,73 @@
     <t>51,12%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
   </si>
   <si>
     <t>50,75%</t>
   </si>
   <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>75,49%</t>
   </si>
   <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>57,48%</t>
   </si>
   <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
   </si>
   <si>
     <t>42,52%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -336,22 +336,16 @@
     <t>23,38%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
     <t>51,66%</t>
   </si>
   <si>
     <t>76,62%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>79,75%</t>
+    <t>61,11%</t>
   </si>
   <si>
     <t>41,44%</t>
@@ -363,13 +357,13 @@
     <t>28,45%</t>
   </si>
   <si>
-    <t>69,65%</t>
+    <t>67,14%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>20,25%</t>
+    <t>38,89%</t>
   </si>
   <si>
     <t>58,56%</t>
@@ -381,49 +375,49 @@
     <t>71,55%</t>
   </si>
   <si>
-    <t>30,35%</t>
+    <t>32,86%</t>
   </si>
   <si>
     <t>57,37%</t>
   </si>
   <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
   </si>
   <si>
     <t>42,44%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
   </si>
   <si>
     <t>42,63%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>57,56%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>75,04%</t>
   </si>
   <si>
-    <t>30,95%</t>
+    <t>30,43%</t>
   </si>
   <si>
     <t>22,81%</t>
@@ -435,16 +429,16 @@
     <t>56,57%</t>
   </si>
   <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>69,05%</t>
+    <t>69,57%</t>
   </si>
   <si>
     <t>77,19%</t>
@@ -456,64 +450,64 @@
     <t>43,43%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
   </si>
   <si>
     <t>43,22%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E927FD3C-29DD-4973-A051-0570E75A2B41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D5E6A7-DD55-4E70-A6C7-D82FBCBAD39C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1982,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC99504-EC08-41AD-B7E8-7ABBCA98733B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556BF173-7AB2-4407-9192-493283C3907A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2291,7 +2285,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,7 +2315,7 @@
         <v>1049</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
@@ -2336,10 +2330,10 @@
         <v>3216</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2410,13 +2404,13 @@
         <v>1019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2425,13 +2419,13 @@
         <v>2101</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2440,13 +2434,13 @@
         <v>3120</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,10 +2455,10 @@
         <v>4875</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -2476,10 +2470,10 @@
         <v>2970</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -2491,10 +2485,10 @@
         <v>7845</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -2565,13 +2559,13 @@
         <v>3822</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2595,13 +2589,13 @@
         <v>3822</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2610,13 @@
         <v>2841</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2646,13 +2640,13 @@
         <v>5185</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,10 +2714,10 @@
         <v>5861</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -2735,13 +2729,13 @@
         <v>975</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2750,13 +2744,13 @@
         <v>6837</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2765,13 @@
         <v>1950</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2786,10 +2780,10 @@
         <v>3300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2801,13 +2795,13 @@
         <v>5249</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2869,13 @@
         <v>10703</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2890,13 +2884,13 @@
         <v>4058</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -2905,13 +2899,13 @@
         <v>14760</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2920,13 @@
         <v>14061</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -2941,13 +2935,13 @@
         <v>9662</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -2956,13 +2950,13 @@
         <v>23723</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B30-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B30-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D56A165-F0E8-4C23-845F-3474B3945C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E24D5AB-14BF-4A18-BE81-48459D1B8200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DDA536F4-F3EB-422F-97B1-10AE5E5C717C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A366357-2EB6-4152-AFF0-9CBBBB23BB02}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="155">
   <si>
     <t>Población cuya cirrosis le limita en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -96,13 +96,13 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>67,39%</t>
   </si>
   <si>
-    <t>32,78%</t>
+    <t>32,68%</t>
   </si>
   <si>
     <t>66,12%</t>
@@ -111,16 +111,16 @@
     <t>66,98%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>32,61%</t>
   </si>
   <si>
-    <t>67,22%</t>
+    <t>67,32%</t>
   </si>
   <si>
     <t>33,88%</t>
@@ -129,64 +129,64 @@
     <t>33,02%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>38,11%</t>
+    <t>47,84%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>37,54%</t>
+    <t>37,07%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>61,89%</t>
+    <t>52,16%</t>
   </si>
   <si>
     <t>24,56%</t>
   </si>
   <si>
-    <t>62,46%</t>
+    <t>62,93%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>39,29%</t>
+    <t>20,07%</t>
   </si>
   <si>
     <t>34,4%</t>
@@ -195,319 +195,313 @@
     <t>67,42%</t>
   </si>
   <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya cirrosis le limita en 2016 (Tasa respuesta: 0,52%)</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
     <t>25,45%</t>
   </si>
   <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
   </si>
   <si>
     <t>74,55%</t>
   </si>
   <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya cirrosis le limita en 2015 (Tasa respuesta: 0,52%)</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
     <t>43,22%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D5E6A7-DD55-4E70-A6C7-D82FBCBAD39C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79EDEF-4964-4AD7-ABFD-3CAA93BB690F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1976,7 +1970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556BF173-7AB2-4407-9192-493283C3907A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CA37FA-9C32-4959-A482-1CDC0C577569}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2735,7 +2729,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2744,13 +2738,13 @@
         <v>6837</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2759,13 @@
         <v>1950</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2780,10 +2774,10 @@
         <v>3300</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -2795,13 +2789,13 @@
         <v>5249</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2863,13 @@
         <v>10703</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2884,13 +2878,13 @@
         <v>4058</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -2899,13 +2893,13 @@
         <v>14760</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2914,13 @@
         <v>14061</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -2935,13 +2929,13 @@
         <v>9662</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -2950,13 +2944,13 @@
         <v>23723</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
